--- a/FATP Exam System/excelModel/QuestionModel.xlsx
+++ b/FATP Exam System/excelModel/QuestionModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1382919\source\repos\FATP Exam System\FATP Exam System\excelModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E26BC7-5944-471A-BF2A-B97B2D36088B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DB8EC-EBC5-46AE-9E41-CA7853317FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>SelectD</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>This is a single Question example</t>
+  </si>
+  <si>
+    <t>This is a multiple Question example</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice A </t>
+  </si>
+  <si>
+    <t>Choice B</t>
+  </si>
+  <si>
+    <t>Choice C</t>
+  </si>
+  <si>
+    <t>Choice D</t>
   </si>
 </sst>
 </file>
@@ -396,17 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="3" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -430,6 +461,52 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/FATP Exam System/excelModel/QuestionModel.xlsx
+++ b/FATP Exam System/excelModel/QuestionModel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1382919\source\repos\FATP Exam System\FATP Exam System\excelModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DB8EC-EBC5-46AE-9E41-CA7853317FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB717C-3BE4-4456-9323-270BC6BB054E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FATP Exam System/excelModel/QuestionModel.xlsx
+++ b/FATP Exam System/excelModel/QuestionModel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1382919\source\repos\FATP Exam System\FATP Exam System\excelModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1382919\source\repos\FATP-Exam-System\FATP Exam System\excelModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB717C-3BE4-4456-9323-270BC6BB054E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F735152-A541-4F13-B29C-D71AF80BA9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -54,28 +54,55 @@
     <t>A</t>
   </si>
   <si>
-    <t>This is a single Question example</t>
-  </si>
-  <si>
-    <t>This is a multiple Question example</t>
-  </si>
-  <si>
     <t>Multiple</t>
   </si>
   <si>
     <t>A,B,C,D</t>
   </si>
   <si>
-    <t xml:space="preserve">Choice A </t>
-  </si>
-  <si>
-    <t>Choice B</t>
-  </si>
-  <si>
-    <t>Choice C</t>
-  </si>
-  <si>
-    <t>Choice D</t>
+    <t>The standards of wireless local area network is?(无线局域网的标准是?)</t>
+  </si>
+  <si>
+    <t>A.802.2</t>
+  </si>
+  <si>
+    <t>B.802.3</t>
+  </si>
+  <si>
+    <t>C.802.3u</t>
+  </si>
+  <si>
+    <t>D.802.11</t>
+  </si>
+  <si>
+    <t>To obtain the DC component in the signal, should use?(为获取信号中的直流成分，应选用?)</t>
+  </si>
+  <si>
+    <t>A.low pass filter(低通滤波器)</t>
+  </si>
+  <si>
+    <t>B. bandpass filter(带通滤波器)</t>
+  </si>
+  <si>
+    <t>C. high-pass filter(高通滤波器)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>The relay protection device must meet the basic requirements?( 继电保护装置必须满足 基本要求?)</t>
+  </si>
+  <si>
+    <t>A.selective(选择性)</t>
+  </si>
+  <si>
+    <t>B. quickness(快速性)</t>
+  </si>
+  <si>
+    <t>C. sensitivity(灵敏性)</t>
+  </si>
+  <si>
+    <t>D.the reliability(可靠性)</t>
   </si>
 </sst>
 </file>
@@ -426,18 +453,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="93.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -465,48 +494,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
